--- a/Data/raw_states/data_2020-05-19_aw.xlsx
+++ b/Data/raw_states/data_2020-05-19_aw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/aw3269_cumc_columbia_edu/Documents/Side/covid_us_states_tracking/Data/Archive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aijin/OneDrive - cumc.columbia.edu/Side/covid_us_states_tracking/Data/raw_states/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5D90527019923D5A6EACC9D567B2BC4076BC612E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A4FF9FC0-D60B-6348-AEEB-E7E2950B56A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C49DC-077A-B643-AF52-CBECA7CFE3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25700" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25700" windowHeight="16260" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MA" sheetId="1" r:id="rId1"/>
@@ -17828,7 +17828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -50820,7 +50822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
